--- a/example/data/00-测试.xlsx
+++ b/example/data/00-测试.xlsx
@@ -1,188 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ECConverter\example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE7106A-D7A9-489B-B8A5-CB8E31223B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEBBBD-80D3-4B22-9B33-B72D527EF633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15555" xr2:uid="{1E7E73D2-3898-4D85-8949-AD9BDC8298AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="试一下中文名" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="试一下中文名" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>example_enum.GameGlobalEvent</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>example_enum.GameGlobalEvent:
+ENTER_LOGIN_SCENE: 进入登录场景
+ENTER_COMBAT_SCENE: 进入战斗场景</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+  <si>
+    <t>test_data</t>
+  </si>
+  <si>
+    <t>ENTER_LOGIN_SCENE: 进入登录场景
+ENTER_COMBAT_SCENE: 进入战斗场景</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
+    <t>测试字典</t>
+  </si>
+  <si>
+    <t>伤害基础值</t>
+  </si>
+  <si>
+    <t>伤害可暴击</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>hero_id</t>
+  </si>
+  <si>
+    <t>hero_list</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>damage.base</t>
+  </si>
+  <si>
+    <t>damage.crit</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>str/hero_data</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>str/example_enum.GameGlobalEvent</t>
   </si>
   <si>
     <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>m_repeated</t>
+  </si>
+  <si>
+    <t>hero_a|hero_c</t>
+  </si>
+  <si>
+    <t>a_name</t>
+  </si>
+  <si>
+    <t>2.3|0.1|0.44|0.0|0.2</t>
+  </si>
+  <si>
+    <t>hero_b</t>
+  </si>
+  <si>
+    <t>hero_c</t>
+  </si>
+  <si>
+    <t>{1: 2, 3: 4}</t>
+  </si>
+  <si>
+    <t>b_name</t>
+  </si>
+  <si>
+    <t>{'a': 4, 'b': 4.444}</t>
+  </si>
+  <si>
+    <t>3|7</t>
+  </si>
+  <si>
+    <t>False|True</t>
+  </si>
+  <si>
+    <t>tac_data</t>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊</t>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害基础值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害可暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.crit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3|0.1|0.44|0.0|0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tac_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str/hero_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_repeated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_a|hero_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'a': 4, 'b': 4.444}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1: 2, 3: 4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False|True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTER_LOGIN_SCENE</t>
+  </si>
+  <si>
+    <t>ENTER_COMBAT_SCENE</t>
   </si>
 </sst>
 </file>
@@ -229,10 +224,10 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,184 +543,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F473CAF2-D30F-4B33-B59A-FF44C1519579}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>3.14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"ENTER_LOGIN_SCENE,ENTER_COMBAT_SCENE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007D13C-DC7D-4C04-A5FD-752C472E02FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -735,61 +759,61 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>